--- a/Fulton Hogan Civil/37397/_res_comb.xlsx
+++ b/Fulton Hogan Civil/37397/_res_comb.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fulton Hogan Civil\37397\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03AE28-C049-4CAA-93E4-2FDCA28E92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC8F6BC-2E62-4808-AB27-18A8E73A51AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2775" windowWidth="27090" windowHeight="18105" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11325" yWindow="2820" windowWidth="27090" windowHeight="18105" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$881</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="414">
   <si>
     <t>type</t>
   </si>
@@ -59,6 +75,1209 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>FHC-ITP-008 - Stormwater Drainage - Greensborough</t>
+  </si>
+  <si>
+    <t>1.1 Check for correct documentation</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencing any activity</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Drawings and drawing registers</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Visual inspection</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed off</t>
+  </si>
+  <si>
+    <t>HP*</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer / Site Foreman</t>
+  </si>
+  <si>
+    <t>Date Completed:</t>
+  </si>
+  <si>
+    <t>1.2 Implementation of all measures and controls</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: PSP, EMP, TMP, JSEA, SWMS &amp; WP</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: PSP, EMP, TMP, JSEA, SWMS, WP</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Visual Inspection</t>
+  </si>
+  <si>
+    <t>1.3 Precast Materials acceptance</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Delivery</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Precast reinforced concrete pipes shall be accepted on the basis of full compliance with the requirements of this section and AS/NZS 4058.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Cl. 701.05e</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer</t>
+  </si>
+  <si>
+    <t>1.4 Precast Pipe &amp; Culvert Compliance</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to Commencing</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Document review &amp; Site inspection</t>
+  </si>
+  <si>
+    <t>1.5 Precast Drainage Pit Compliance</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All concrete shall be manufactured to the concrete mix design registered by VicRoads and comply with the requirements of Section 610.</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Document Review</t>
+  </si>
+  <si>
+    <t>1.6 Bedding material classification</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to start</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Materials used for bedding and selected backfill shall be free from perishable matter and lumps and shall conform with the requirements of Table 701.091 and Table 701.092.</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Verify</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>1.7 Backfill material Classification</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ordinary backfill shall be free from perishable matter and shall conform with the requirements of Table 701.091.</t>
+  </si>
+  <si>
+    <t>1.8 Mortar material classification</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Cementituous grouts shall be minimum Type C class dual shinkage compensating, with a minimum 28 day compressive strength of 40 Mpa</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.33</t>
+  </si>
+  <si>
+    <t>2.1 Excavation Permit</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each lot</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Excavation permit</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: ITP Signed</t>
+  </si>
+  <si>
+    <t>2.2 Set out drainage</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to backfilling</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The position of all drainage lines are to be confirmed with the superintendent</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Superintendent</t>
+  </si>
+  <si>
+    <t>2.3 Excacation (pipes)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Trench</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Foreman</t>
+  </si>
+  <si>
+    <t>2.4 Excacation (pits)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Pit</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: A minimum clearance of 400mm is required around the external faces of precast pits.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 705.05b</t>
+  </si>
+  <si>
+    <t>2.5 Compact base of trench</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Compacted to refusal using mechanical plant.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.15</t>
+  </si>
+  <si>
+    <t>2.6 Place bedding material &amp; compact</t>
+  </si>
+  <si>
+    <t>2.7 Place pipes &amp; precast pits</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Line/Pit</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Pipes &amp; pits placed as shown on the drawings. No laying to occur until bedding lines and levels and compaction requirements have been satisfied</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Drawings</t>
+  </si>
+  <si>
+    <t>2.8 Jointing pipe sections</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Line</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All interlocking (flush) joint reinforced concrete pipes shall be mortar jointed, or wrapped with a 200 mm wide external joint rubber band.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.18</t>
+  </si>
+  <si>
+    <t>2.9 Sealing - for joining culvert sections and pipe penetrations in pits</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Contact areas between top and bottom sections of box culverts to be mortared. The joints between various components such as drainage pits, access chambers and pipes shall be made watertight using a cementitious mortar in accordance with the requirements of Clause 610.32.</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.1</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Survey Conformance Point</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Surveyor</t>
+  </si>
+  <si>
+    <t>2.11 Haunching &amp; compaction of bedding material</t>
+  </si>
+  <si>
+    <t>FREQUENCY: each lot</t>
+  </si>
+  <si>
+    <t>2.12 Place &amp; compact backfill material over pipes</t>
+  </si>
+  <si>
+    <t>2.13 Place &amp; compact backfill material around pits</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 705.18</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Enginer</t>
+  </si>
+  <si>
+    <t>2.14 Backfilling with cement stabilised sand</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each culvert</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: VicRoads Spec. Cl. 701.19(a)</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Site Inspection</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Project Engineer / Superintendent</t>
+  </si>
+  <si>
+    <t>2.15 Install step irons</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: For pits &gt; 1m deep.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 705.12</t>
+  </si>
+  <si>
+    <t>2.16 Pit base shaped with concrete to match pipe invert</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: As shown on Standard VicRoads drawing - Pit &amp; Pipe Invert levels SD 1002</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Standard VicRoads drawing SD 1002</t>
+  </si>
+  <si>
+    <t>2.17 Place pit covers</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Covers must be set to within ±10mm of the design levels shown on the drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 705.17</t>
+  </si>
+  <si>
+    <t>2.18 Repairs to damaged pipes and box culverts</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each damaged pipe or culvert</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.31a</t>
+  </si>
+  <si>
+    <t>FREQUENCY: at least 20% of all lots</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Verify test reports</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Test Reports</t>
+  </si>
+  <si>
+    <t>3.2 CCTV inspection</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All drainage lines constructed shall be inspected, after completion of earthworks to subgrade level and prior to construction of pavement layers, by an independent testing organisation using closed circuit television (CCTV) to verify that the flow of water is not obstructed by waste construction material left inside and to check for visible signs of defects.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.3</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: CCTV Report</t>
+  </si>
+  <si>
+    <t>3.3 Cleaning of pipes</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each line</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All pipes to be clean upon completion</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.28</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>2.10 Survey of laid pipe or pit</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>Final Inspection</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>The signature below verifies that this ITP has been completed in accordance with the FH’s Quality system Procedures and verifies lot compliance with specifications.</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Preliminary Works</t>
+  </si>
+  <si>
+    <t>Construction Works</t>
+  </si>
+  <si>
+    <t>Testing &amp; Completion</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure that all employees and subcontractors are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– using the correct and complete set of drawings </t>
+  </si>
+  <si>
+    <t>– all drawings are the latest revision</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Precast Reinforced Concrete Box Culverts to comply with requirements of VicRoads Section 619.</t>
+  </si>
+  <si>
+    <t>○ Precast Reinforced Concrete (Portland) Pipes shall comply with requirements of AS 4058</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: VicRoads Spec. Cl.619, Cl. 701.04, Cl. 701.05(a), AS4058, AS4680</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Receival &amp; Inspection Checklist, Manufacturer cetificate or accreditation</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: VicRoads Spec. Cl.610, Cl. 705.04, AS5100</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Receival &amp; Inspection Checklist, This ITP signed off</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.09(d), 701.091, 701.092</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.09(d), 701.091</t>
+  </si>
+  <si>
+    <t>○ Plant and equipment shall be appropriate for the task.</t>
+  </si>
+  <si>
+    <t>○ Excavation operations shall not disturb areas outside the limit of excavation</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Drawings 701.10</t>
+  </si>
+  <si>
+    <t>Depth of trench:</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.151, 701.15</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.20, 701.20a</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.32, 701.17c</t>
+  </si>
+  <si>
+    <t>(b) plan location of pits other than offsets to kerb lines or barriers ±100 mm</t>
+  </si>
+  <si>
+    <t>(c) invert level of pipes at pits ±50 mm</t>
+  </si>
+  <si>
+    <t>(d) departure from design grade of pipe runs ±10 mm in 10 m provided minimum grade is not less than 1:250</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Height of additional bedding material = 30% of nominal pipe diameter or culvert height.</t>
+  </si>
+  <si>
+    <t>○ Loose layer thickness &lt;=150mm</t>
+  </si>
+  <si>
+    <t>○ Compacted to refusal using hand held mechanical equipment.</t>
+  </si>
+  <si>
+    <t>○ 1 lot = 150mm layer</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.16, 701.20</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Backfill under paved area: fill trench with selected back fill material to subgrade level</t>
+  </si>
+  <si>
+    <t>○ Backfill under area not paved: Back fill trench with selected back fill to a level 0.3 m above the top of pipe or culvert, and ordinary back fill above that level</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.19, 701.20</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Loose layer thickness &lt;= 300mm.</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Superintendent approval, ITP signed</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: No repairs shall be undertaken without the superintendents approval of the repair materials and procedures</t>
+  </si>
+  <si>
+    <t>○ All repair procedures undertaken in accordance with Cl 701.25</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Backfill material shall be compactied to a mean density ratio of 97% using standard compactive effort.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 701.20a, 701.20b</t>
+  </si>
+  <si>
+    <t>FHC-ITP-012 - Hot Mix Asphalt - Greensborough</t>
+  </si>
+  <si>
+    <t>1.1 Submission of Mix Design</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencing paving</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ensure this mix design has been registered and is approved by Superintendent prior to laying mix.</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Correspondence of receipt of mix design</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Asphalt Supervisor / Superintendent</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: OHSCP, PHSCP, PCMP, EMP, ECP, CEMP, ERA, QMP, CHMP, SWMS</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: OHSCP, PHSCP, PCMP, EMP, ECP, CEMP, ERA, QMP, CHMP, SWMS</t>
+  </si>
+  <si>
+    <t>1.3 Site Inspection and Base Condition</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Surface on which asphalt is to be placed is essentially dry and free from puddles and defects (holes, cracks, unstable material and edge irregularities) and loose materials.</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Asphalt Supervisor</t>
+  </si>
+  <si>
+    <t>1.4 Ambient Conditions for Placing</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.17</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Thermometer</t>
+  </si>
+  <si>
+    <t>1.5 Planning of Joints</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Measure and mark out runs by tape measure or survey</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Paving Plan</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Project Engineer/ Asphalt Supervisor</t>
+  </si>
+  <si>
+    <t>1.6 Longitudinal Joints with existing Pavement</t>
+  </si>
+  <si>
+    <t>1.7 Lot Size</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to testing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Lot size for determination of testing shall be in accordance with 407.27 (b) (ii), where less than 500 m2, reduced testing may apply</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.27 (b) (ii)</t>
+  </si>
+  <si>
+    <t>2.1 Tack Coat</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Tack coat to be sprayed in a uniform film over the surface to be paved at a rate of 0.15-0.30 L/m2 of residual binder (60% bitumen )or 0.30 to 0.60 litres/m2 (30% bitumen content). This rate is to be doubled on joints and chases. Tack coat must be allowed to turn from brown to black before paving. NOTE: Tack coat is not required on clean, freshly placed asphalt or primed surfaces or when the layer to be placed exceeds 50mm unless directed by the Client</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Spray area</t>
+  </si>
+  <si>
+    <t>2.2 Commencement of Placing</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to commencing Paving</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The placement of asphalt on the sub-base or granular base for a new pavement or for an overlay of an existing bituminous surfaced pavement shall not commence until the consent to proceed is obtained from the Client.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.23</t>
+  </si>
+  <si>
+    <t>2.3 Mix Design Confirmation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Check correct mix design as per pavement design has been delivered prior to laying mix.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.2</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Visual Inspection &amp; Delivery Docket</t>
+  </si>
+  <si>
+    <t>2.4 Delivery of Mix</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each load</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Asphalt is not segregated, binder is not separated or does not contain uncoated particles and the temperature from mixing plant is not more than 175°C.</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Delivery Docket</t>
+  </si>
+  <si>
+    <t>2.5 Traceability</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Ability to locate asphalt test results placed in three dimensions i.e. start/end chainage, offset/lane and layer</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Fulton Hogan Quality Plan</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Daily Lot Record</t>
+  </si>
+  <si>
+    <t>2.6 Layer Thickness and Level Control</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Regularly during paving</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Thickness of asphalt layer conforms to asphalt thickness on drawings or specifications</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Dips using ruler or dip stick</t>
+  </si>
+  <si>
+    <t>2.7 Paver Stoppages</t>
+  </si>
+  <si>
+    <t>FREQUENCY: If paver stops</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: A transverse joint shall be constructed if the asphalt in front of the screed cools to below 120°C</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.25 (c)</t>
+  </si>
+  <si>
+    <t>2.8 Surface Finish of Wearing Course</t>
+  </si>
+  <si>
+    <t>FREQUENCY: During paving and after final roll</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The finished surface of asphalt wearing course shall be of uniform appearance, free of dragged areas, cracks, open textured patches and roller marks</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.29 (a)(i)</t>
+  </si>
+  <si>
+    <t>2.9 Height Relative Kerb and Channel</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The edge of the wearing course shall be either flush with or not more than 5 mm above the lip of the channel unless otherwise specified</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.29 (a)(ii)</t>
+  </si>
+  <si>
+    <t>FREQUENCY: During paving and at completion of work</t>
+  </si>
+  <si>
+    <t>2.11 Width of layers not placed against concrete edge</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.29 (a)(v)</t>
+  </si>
+  <si>
+    <t>3.1 Compaction</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per Lot</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.27</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Test Report</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ FH Lab Technician</t>
+  </si>
+  <si>
+    <t>3.2 Level Conformance</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Per 4,000m2 at completion of work</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Individual departures from design not to exceed ±8mm with a standard deviation of no greater than 10mm (Scale B)</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Table 407.293</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Survey by VicRoads Section 173</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Survey Conformance</t>
+  </si>
+  <si>
+    <t>2.10 Alignment of layers not placed against concrete edge</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Asphalt Placement works</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: VicRoads Spec. Cl.407.09</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: MRPA approval, Completed ITP</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.17, AS2150 10.1, AS2150 10.3</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The majority of the surface area to be paved has a temperature greater than or equal to the following:</t>
+  </si>
+  <si>
+    <t>○ Base &amp; Intermediate Courses: 5°C for conventional binders or 10°C for PMBs &amp; Class 600</t>
+  </si>
+  <si>
+    <t>○ Wearing Courses: 10°C for conventional binders or 15°C for PMBs</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Runs to be marked to ensure placement of joints satisfy the following unless otherwise approved by the Client:</t>
+  </si>
+  <si>
+    <t>○ Transverse Joints Offset from layer to layer by at least 2m</t>
+  </si>
+  <si>
+    <t>○ Longitudinal Joints Offset from layer to layer by at least</t>
+  </si>
+  <si>
+    <t>○ 150mm and be within 300mm of the lane line or centre of lane. Wearing course shall be on lane lines.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.21 (b) &amp; (c) Pavement Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where new pavement abuts an existing pavement, the existing pavement shall be removed in steps to achieve an offset from layer to layer of not less than 150mm.</t>
+  </si>
+  <si>
+    <t>○ Depth of step to be cut to the full depth of each indiviual layer.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.19, AS2150 11</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: Delivery docket, Completed ITP</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.20 (a) &amp; (b) Drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.29 (a)(iv) Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The edge of asphalt layers shall not be more than 50mm inside nor more than 100mm outside, the designed offset from centreline or design line.</t>
+  </si>
+  <si>
+    <t>○ The rate of change of offset of the edge of layer shall not be greater than 25mm in 10m</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The width of asphalt layers shall not be less than the design or specified width of layer by more than 50mm or greater than the design or specified width by more than 100mm.</t>
+  </si>
+  <si>
+    <t>○ The average width over any 300m shall not be less than the design or specified width</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: For layers &lt;50mm, if characteristic density ratio is:</t>
+  </si>
+  <si>
+    <t>For layers ≥50mm, if characteristic thickness is:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 95.0% or greater Accept lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 93.0% to 94.9% Lot may be accepted at reduced rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 96.0% or greater Accept lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ 94.0% to 95.9% Lot may be accepted at reduced rate</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Horizontal clearance ( between the walls of trench to the side of pipe shall be 300mm – 600mm for pipes, and 0.5 to 1 times the overall height of the culvert for box culverts. Trench walls to be vertical where practical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &gt; 200mm below underside of pipe (for pipe width &gt; 1500 mm)</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Bedding and backfill materials shall be placed and compacted in layers not exceeding 150 mm loose thickness. Bedding shall be compacted to refusal using hand held mechanical equipment. Bedding material which has a swell equal to or greater than 2.5% shall be maintained at a mean moisture ratio of 92% between the completion of rolling and the placement of the overlying layer.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: The location of each run of drainage has been verified prior to backfilling and conforms to the following tolerances:</t>
+  </si>
+  <si>
+    <t>(a) offset of entry pits required to match lines of kerbs or barriers ±20 mm</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Where approval is given from superintendent, culverts in trenches may be backfilled to half the pipe diameter or box culvert height with 3% stabilised sand with a water content sufficient to ensure penetration beneath the pipe or box culvert invert without leaving free surface water.</t>
+  </si>
+  <si>
+    <t>3.1 Compaction and moisture content of backfill &amp; bedding material</t>
+  </si>
+  <si>
+    <t>○ Bedding shall be compacted to refusal using hand held mechanical equipment. Bedding material which has a swell equal to or greater than 2.5% shall be maintained at a mean moisture ratio of 92 between the completion of rolling and the placement of the overlying layer.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 407.21 (c) (ii)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: An excavation permit must be issued prior to any excavation commencing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ &gt; 100mm below underside of pipe (for pipe width &lt; 1500 mm) </t>
+  </si>
+  <si>
+    <t>FHC-ITP-015 - Kerb and Channel - Greensborough</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Site Engineer/ Site Foreman</t>
+  </si>
+  <si>
+    <t>2.1 Setting Out</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Set out work in accordance with drawings. The superintendent will review and confirm set out. The alignment and survey/level pegs will be indicated to the Contractor on the Site by the Superintendent prior to the commencement of work. No survey/level pegs to be removed by any persons until completion of works.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.17</t>
+  </si>
+  <si>
+    <t>2.2 Temporary Drainage Provisions</t>
+  </si>
+  <si>
+    <t>FREQUENCY: If Required</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: If obstructing waterways, culverts or channels, temporary diversion of discharge of drainage and stormwater to be in place.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.18</t>
+  </si>
+  <si>
+    <t>2.3 Bedding</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.21</t>
+  </si>
+  <si>
+    <t>2.4 Pre-concrete check</t>
+  </si>
+  <si>
+    <t>HP*/ WP</t>
+  </si>
+  <si>
+    <t>2.5 Concrete Placement</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete is to be fed to extrusion machine at a uniform rate. Concrete is to be satisfactorily compacted so that finished surfaces are free from surface pitting larger than 5mm diameter, honey combing or faulty patches</t>
+  </si>
+  <si>
+    <t>2.6 Finish Surfaces</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each Lot</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.25</t>
+  </si>
+  <si>
+    <t>2.7 Tolerances</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.15(b)</t>
+  </si>
+  <si>
+    <t>2.8 Joints</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each joint</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.26</t>
+  </si>
+  <si>
+    <t>2.9 Backfilling</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Topsoil material free from perishable matter, lumps or balls of clay. Topsoil compacted behind the edging to a level of the top of the edging and to a width not less than 300mm unless otherwise specified.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.29</t>
+  </si>
+  <si>
+    <t>3.1 Survey data captured for as-built purposes</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Completion of each lot</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Survey to ensure and validate that all works meet level requirements. Review of existing survey control marks and any additional control marks providing verification of conformity of as constructed features with design. As built survey recorded to confirm installation within tolerances in the latest IFC drawings.</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Document review</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: As-built survey records</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Project Engineer/ Surveyor</t>
+  </si>
+  <si>
+    <t>Completion</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All bedding material shall conform with the requirements of sections 812 or 820 for crushed rock and crushed concrete respectively.</t>
+  </si>
+  <si>
+    <t>○ Unless otherwise stated, 20mm Class 3 or 4 bedding shall be used adn compacted to a thickness of not less than 100mm.</t>
+  </si>
+  <si>
+    <t>○ Bedding shall be trimmed to appropriate levels, moistened as necessary, and be firmly compacted.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Bedding shall be moist but shall have no free water on the surface.</t>
+  </si>
+  <si>
+    <t>○ Concrete shall not be placed when the air temperature measured at the point of placement is &gt;35°C or &lt;5°C.</t>
+  </si>
+  <si>
+    <t>○ Temperature of concrete, measured immediately prior to placing, shall not be less than 10°C or greater than 32°C.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 703.08, 610.17(a)(b)(c)</t>
+  </si>
+  <si>
+    <t>Ambient Temperature</t>
+  </si>
+  <si>
+    <t>Concrete Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: VicRoads Spec 703.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Edgings: rendered to a thickness not exceeding 3mm and trowel finished. </t>
+  </si>
+  <si>
+    <t>○ Concrete to have a neat appearance and uniform colour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Transverse joints constructed at intervals not exceeding 2.5m. </t>
+  </si>
+  <si>
+    <t>○ Groove cut 20mm deep and &gt; 5mm wide on exposed surfaces, with vertical cut made through the base of the groove (depth &gt;50mm from surface of section).</t>
+  </si>
+  <si>
+    <t>○ Prevent bonding between surfacing and edging either paint with bitumen or use a strip of bitumen</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: IFC Drawings / survey records</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Kerb and channel shall be constructed to the level of the adjoining pavement with a tolerance of ‑0 to +10 mm. Except on curves or in shaped areas, the deviation of the finished work from a 3 m straightedge shall not exceed 5 mm at any point.</t>
+  </si>
+  <si>
+    <t>FHC-ITP-025 - Structural Concrete Construction - Greensborough</t>
+  </si>
+  <si>
+    <t>Design and Submissions</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Fulton Hogan Engineer</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: All necessary measures and controls are being implemented, that is: PSP, EMP, TMP, SWMS &amp; WP</t>
+  </si>
+  <si>
+    <t>1.3 Approval of mix design</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to the first concrete pour</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Structural Concrete Design &amp; Submission ITP completed and signed</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.07</t>
+  </si>
+  <si>
+    <t>1.4 Reinforcement schedule</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to concrete pour</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Reinforcement schedule has been prepared for the reinforcement supply, to ensure that it achieves the specified tolerances on member dimensions, concrete cover and specified locations</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 611.04</t>
+  </si>
+  <si>
+    <t>2.1 Excavation</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Excavations shall be to the depths shown on the drawings and that necessary to provide satisfactory foundation</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Contract Drawings</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Inspect</t>
+  </si>
+  <si>
+    <t>2.2 Construction Methodology</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to erection</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Constructed in such a manner so it can be removed without damage to the concrete. Formwork/shoring shall be placed in locations where steel reinforcement and other fixtures can be inspected, and sufficiently tight at joints to prevent loss of slurry</t>
+  </si>
+  <si>
+    <t>3.1 Excavation/Foundation – Blinding, sealing or foundation concrete</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 602.03</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Fulton Hogan / VicRoads</t>
+  </si>
+  <si>
+    <t>3.2 Formwork levels and position</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: A pre-pour survey carried out to confirm erected formwork within the tolerance. Any errors in the level or positioning of formwork is to be corrected prior to placing concrete</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 614.06</t>
+  </si>
+  <si>
+    <t>3.3 Location of splices</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Schedule Review</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: In lapped splices, the bars shall be placed in contact and the specified cover shall be maintained.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 611.11</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY: Fulton Hogan</t>
+  </si>
+  <si>
+    <t>3.4 Cleaning formwork</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Each concrete pour</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete shall not be placed until all foreign material has been completely removed from the forms</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.18 (a) (iii)</t>
+  </si>
+  <si>
+    <t>3.5 Correct forms, reinforcements, rag bolt assembly and embedments</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.18 (a)</t>
+  </si>
+  <si>
+    <t>RECORD OF CONFORMITY: This ITP signed &amp; Pre-Pour checklist completed</t>
+  </si>
+  <si>
+    <t>3.6 Reinforcement assembly of piles</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Reinforcement and/or concrete shall not be placed until the proposed method of removing mud, loose rock or similar materials has been reviewed by the Superintendent.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.17 (b),( c), (d)</t>
+  </si>
+  <si>
+    <t>3.7 Monitoring weather</t>
+  </si>
+  <si>
+    <t>4.1 Carry out sampling of concrete</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Sampling in accordance with 610.16</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.16</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST METHOD: Checklist</t>
+  </si>
+  <si>
+    <t>4.2 Discharge time</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Discharge time (concrete placed and compacted) &lt; 90 minutes from batch time unless approved otherwise.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS:</t>
+  </si>
+  <si>
+    <t>4.3 Methodology of placement (structural)</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.18</t>
+  </si>
+  <si>
+    <t>5.1 Curing</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Sufficient time shall be given for the concrete to cure prior to loading.</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.23</t>
+  </si>
+  <si>
+    <t>5.2 Formwork removal</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Formwork shall be removed carefully and in such a manner as to avoid damage to the member or the concrete surfaces and maintain safety at all stages of removal. Formwork and formwork supports shall not be disturbed or adjusted during the concreting operation</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 610.25</t>
+  </si>
+  <si>
+    <t>5.3 Positional tolerance and dimensions of concrete members and piles</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Dimensions within the tolerances given in Cl 17.5 of AS3600 (-10,+40)</t>
+  </si>
+  <si>
+    <t>5.4 Concrete Sampling and Testing</t>
+  </si>
+  <si>
+    <t>FREQUENCY: Prior to lot closure</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete sampled and tested for Compressive Strength, and Slump.</t>
+  </si>
+  <si>
+    <t>5.5 As Built Drawings</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Recorded of as-built drawings</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: Fulton Hogan Procedure</t>
+  </si>
+  <si>
+    <t>Post-Pour Details and Inspection</t>
+  </si>
+  <si>
+    <t>Placing and Finishing Concrete</t>
+  </si>
+  <si>
+    <t>Pre-Pour Planning and Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction/Erection of Formwork </t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: 614.04, 614.06</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Blinding, sealing or foundation concrete shall not be placed until the bottom of the excavation has been reviewed by the Superintendent. Inspected and approved by the Superintendent.</t>
+  </si>
+  <si>
+    <t>○ Hold Point released by the Superintendent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCEPTANCE CRITERIA: Superintendent confirms that the inspected formwork, reinforcement, rag bolt assembly and embedments comply with the project drawings and specifications. </t>
+  </si>
+  <si>
+    <t>○ Pre-pour checklist completed and signed.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete shall not be place when temperature is &lt;5°C or &gt; 35°C</t>
+  </si>
+  <si>
+    <t>○ All steel components that are in contact with the concrete shall be cooled to below 32°C before concrete is placed</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA: Concrete shall be tansported, handled and placed in a manner that will prevent segregation or loss of materials</t>
+  </si>
+  <si>
+    <t>○ Concrete shall not be moved horizontally by vibrators</t>
+  </si>
+  <si>
+    <t>○ In continuous pours the max. time lag between truckloads on site is 25 minutes</t>
+  </si>
+  <si>
+    <t>REFERENCE DOCUMENTS: AS3600 Cl 17.5, 607.06</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>FHC-ITP-008 - Stormwater Drainage - Greensborough Rev3</t>
+  </si>
+  <si>
+    <t>FHC-ITP-012 - Hot Mix Asphalt - Greensborough Rev2</t>
+  </si>
+  <si>
+    <t>FHC-ITP-015 - Kerb and Channel - Greensborough Rev2</t>
+  </si>
+  <si>
+    <t>FHC-ITP-025 - Structural Concrete Construction - Greensborough Rev1</t>
   </si>
 </sst>
 </file>
@@ -201,7 +1420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +1618,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -560,11 +1797,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,18 +2186,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I10"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I881"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="220" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -987,58 +2238,6785 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>118</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>118</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>118</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>118</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>118</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>118</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>118</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>118</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>12</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>12</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>118</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>12</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>12</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>118</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>12</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>12</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>12</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>118</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>12</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>118</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>12</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>12</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>12</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>118</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>12</v>
+      </c>
+      <c r="B311" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>12</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>12</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>118</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>12</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>118</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>12</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>12</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>118</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>12</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>12</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>118</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>12</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>12</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>12</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>118</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>12</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>12</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>12</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>12</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>12</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>12</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>118</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>12</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>12</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>118</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>12</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>12</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>12</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>12</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>12</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>118</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>12</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>12</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>12</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>12</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>118</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>12</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>12</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>12</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>118</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>12</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>12</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>12</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>118</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>12</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>118</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>12</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>12</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>12</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>12</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>118</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>118</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>12</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>12</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>12</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>118</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>12</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>118</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>12</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>118</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>12</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>12</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>12</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>12</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>12</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>12</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>118</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>12</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>12</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>12</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>12</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>12</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>12</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>118</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>12</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>12</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>12</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>12</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>12</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>12</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>118</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B507" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B508" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B509" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B510" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D528" s="1"/>
+      <c r="E528" s="1"/>
+      <c r="F528" s="1"/>
+      <c r="G528" s="1"/>
+      <c r="H528" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I528" s="1"/>
+    </row>
+    <row r="529" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>12</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>12</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>118</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>12</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>12</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>12</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>12</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>118</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>12</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>12</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>12</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>12</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>12</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>12</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>118</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>12</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>12</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>12</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>12</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>118</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>12</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>12</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>12</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>12</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>12</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>12</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>12</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>12</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>12</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>118</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>12</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>12</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>12</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>118</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E589" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>118</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E590" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>12</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>12</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>118</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>12</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>12</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>12</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>12</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>12</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>118</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>12</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>12</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>12</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>12</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>12</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>12</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>118</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>12</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>12</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>12</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>12</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>12</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>12</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>118</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>12</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>12</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>12</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>12</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>12</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>12</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>12</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>12</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>118</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>12</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>12</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>12</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>12</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>12</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>12</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>12</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>118</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B643" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>12</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>12</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>12</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>12</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>12</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>12</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>12</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>118</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B652" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B653" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B654" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B655" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B656" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D672" s="1"/>
+      <c r="E672" s="1"/>
+      <c r="F672" s="1"/>
+      <c r="G672" s="1"/>
+      <c r="H672" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I672" s="1"/>
+    </row>
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>12</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>12</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>12</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>12</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>12</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>12</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>12</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>12</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>12</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>118</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>12</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>12</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>12</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>12</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>12</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>12</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>12</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>118</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>12</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>12</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>12</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>12</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>12</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>12</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>12</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>118</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>12</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>12</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>12</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>12</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>12</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>12</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>12</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>118</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>12</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>12</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>12</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>12</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>12</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>12</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>12</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>118</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>12</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>12</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>12</v>
+      </c>
+      <c r="B725" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>12</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>12</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>12</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>12</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>118</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>12</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>12</v>
+      </c>
+      <c r="B734" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>12</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>12</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>12</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>12</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B739" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>12</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>118</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>12</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>12</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>12</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>12</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>12</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>12</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>12</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>118</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>12</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>12</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>12</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>12</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>12</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>12</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>12</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>118</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>12</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>12</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>12</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>12</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>12</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>12</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>12</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>118</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>12</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>12</v>
+      </c>
+      <c r="B772" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>12</v>
+      </c>
+      <c r="B773" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>12</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>12</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>12</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>12</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>118</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B780" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>12</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>12</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>12</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>12</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>12</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>12</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>118</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B790" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>12</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>12</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>12</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>12</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>12</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>12</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>12</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>12</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>118</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>12</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>12</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>12</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>12</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>12</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>12</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>12</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>118</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>12</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>12</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>12</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>12</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>12</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>12</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>12</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>118</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>12</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>12</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>12</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>12</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>12</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>12</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>12</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>12</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>12</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>118</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>12</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>12</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>12</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>12</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>12</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>12</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>12</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>118</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>12</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>12</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>12</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>12</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>12</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>12</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>12</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>118</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>12</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>12</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>12</v>
+      </c>
+      <c r="B853" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>12</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>12</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>12</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>12</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>118</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>12</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>12</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>12</v>
+      </c>
+      <c r="B862" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>12</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>12</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>12</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>12</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>118</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>12</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>12</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>12</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>12</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>12</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>12</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>12</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>118</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B877" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B878" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B879" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B880" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B881" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I881" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
